--- a/Texte/Textbausteine_LENA_November2024.xlsx
+++ b/Texte/Textbausteine_LENA_November2024.xlsx
@@ -1538,7 +1538,7 @@
     <t>Les habitants de #Gemeinde_f ont rejeté la baisse, tout comme le canton.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat das Klimagesetz  mit #JaStimmenInProzent Prozent angenommen.</t>
+    <t>#Gemeinde_d hat das Klimagesetz mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
@@ -1550,7 +1550,7 @@
     <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
   </si>
   <si>
-    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Volksinitiative "Keine Steuergeschenke für Grossaktionärinnen und Grossaktionäre" zugestimmt.</t>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Klimagesetz zugestimmt.</t>
   </si>
   <si>
     <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
@@ -1592,7 +1592,7 @@
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi climat et #NeinStimmenAbsolut à le refuser. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Volksinitiative "Keine Steuergeschenke für Grossaktionärinnen und Grossaktionäre" zugestimmt.</t>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden dem Klimagesetz zugestimmt.</t>
   </si>
   <si>
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>

--- a/Texte/Textbausteine_LENA_November2024.xlsx
+++ b/Texte/Textbausteine_LENA_November2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="585">
   <si>
     <t>Kanton</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Locazione</t>
   </si>
   <si>
-    <t>Mietrecht (Kündigung Eigenbedarf)</t>
+    <t>Kündigung für Eigenbedarf</t>
   </si>
   <si>
     <t>Résiliation pour besoin propre</t>
@@ -1649,9 +1649,6 @@
     <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
-    <t>La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
-  </si>
-  <si>
     <t>La création du district de Moutier passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à la réalisation d'une circonscription électorale de 7 députés sur 60, le temps d'une législature.</t>
   </si>
   <si>
@@ -20928,9 +20925,6 @@
       <c r="C4" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="E4" s="21"/>
     </row>
     <row r="5">
@@ -20939,7 +20933,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
@@ -20950,7 +20944,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
@@ -20961,7 +20955,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -20972,7 +20966,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -20983,7 +20977,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
@@ -20994,7 +20988,7 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
@@ -21005,7 +20999,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
@@ -21016,7 +21010,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -26878,47 +26872,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>550</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>554</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>556</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>558</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="48">
         <v>60.4</v>
@@ -26926,7 +26920,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="48">
         <v>39.6</v>
@@ -26934,23 +26928,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>562</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>564</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B10" s="48">
         <v>60.4</v>
@@ -26958,7 +26952,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B11" s="48">
         <v>39.6</v>
@@ -26966,26 +26960,26 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>570</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="15">
@@ -26993,13 +26987,13 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B16" s="49"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B17" s="48">
         <v>60.4</v>
@@ -27007,7 +27001,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B18" s="48">
         <v>39.6</v>
@@ -27015,23 +27009,23 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B21" s="48">
         <v>60.4</v>
@@ -27039,7 +27033,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B22" s="48">
         <v>39.6</v>
@@ -27047,23 +27041,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B25" s="51">
         <v>60.4</v>
@@ -27071,7 +27065,7 @@
     </row>
     <row r="26">
       <c r="A26" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B26" s="51">
         <v>39.6</v>
@@ -27082,19 +27076,19 @@
     </row>
     <row r="28">
       <c r="A28" s="50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B28" s="49"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B29" s="49"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B30" s="49"/>
     </row>

--- a/Texte/Textbausteine_LENA_November2024.xlsx
+++ b/Texte/Textbausteine_LENA_November2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="588">
   <si>
     <t>Kanton</t>
   </si>
@@ -251,7 +251,7 @@
     <t>Die Gemeinde #Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
   </si>
   <si>
-    <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent la réforme en faveur de l'extension des autoroutes.</t>
+    <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent les projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i hanno accolto il potenziamento delle strade nazionali con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -260,7 +260,7 @@
     <t>Ja zum Bundesbeschluss über den Ausbau der Autobahnen in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger die Vorlage angenommen.</t>
   </si>
   <si>
-    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à de la réforme en faveur de l'extension des autoroutes.</t>
+    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent aux projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>Gli abitanti di #Gemeinde_i hanno accolto il potenziamento delle strade nazionali con il #JaStimmenInProzent per cento di "sì".</t>
@@ -269,7 +269,7 @@
     <t>Die Gemeinde #Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la réforme favorable à l'extension des projets autoroutiers.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent aux projets d'extensions autoroutières.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno accolto il potenziamento delle strade nazionali con il #JaStimmenInProzent per cento di voti favorevoli.</t>
@@ -287,7 +287,7 @@
     <t>#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zum Bundesbeschluss über den Ausbau der Autobahnen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la réforme en faveur de l'extension des autoroutes.</t>
+    <t>Les habitants de #Gemeinde_f acceptent à #JaStimmenInProzent pour cent l'élargissement de six tronçons autoroutiers.</t>
   </si>
   <si>
     <t>Il #JaStimmenInProzent per cento degli elettori di #Gemeinde_i ha accolto il potenziamento delle strade nazionali.</t>
@@ -296,7 +296,7 @@
     <t>Ja zum Bundesbeschluss über den Ausbau der Autobahnen in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
-    <t>La réforme en faveur de l'extension des autoroutes passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
+    <t>Les projets d'extensions autoroutières passent la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
   </si>
   <si>
     <t>Il potenziamento delle strade nazionali è stato accolto a #Gemeinde_i, dove ha riscosso il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -305,7 +305,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben den Bundesbeschluss über den Ausbau der Autobahnen angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la réforme en faveur de l'extension des autoroutes.</t>
+    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent l'extension de six tronçons autoroutiers.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i si sono mostrati favorevoli al potenziamento delle strade nazionali, che ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
@@ -317,7 +317,7 @@
     <t>Die Stimmbevölkerung von #Gemeinde_d hat sich mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut für den Bundesbeschluss über den Ausbau der Autobahnen ausgesprochen.</t>
   </si>
   <si>
-    <t>La réforme en faveur de l'extension des autoroutes est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+    <t>Les projets d'extension des autoroutes sont validés à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>Il potenziamento delle strade nazionali ha passato la prova delle urne a #Gemeinde_i, dove ha raccolto #JaStimmenAbsolut voti favorevoli e #NeinStimmenAbsolut voti contrari.</t>
@@ -338,7 +338,7 @@
     <t>In #Gemeinde_d hat der Bundesbeschluss über den Ausbau der Autobahnen keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
   </si>
   <si>
-    <t>La réforme en faveur de l'extension des autoroutes est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
+    <t>L'extension des autoroutes est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i hanno respinto il potenziamento delle strade nazionali con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -347,7 +347,7 @@
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d sagen Nein zum Bundesbeschluss über den Ausbau der Autobahnen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à la réforme en faveur de l'extension des autoroutes par #NeinStimmenInProzent pour cent des voix.</t>
+    <t>Les habitants de #Gemeinde_f s'opposent à l'extension des autoroutes par #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
     <t>Gli abitanti di #Gemeinde_i hanno respinto il potenziamento delle strade nazionali con il #NeinStimmenInProzent per cento di "no".</t>
@@ -356,7 +356,7 @@
     <t>Nein zum Bundesbeschluss über den Ausbau der Autobahnen in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la réforme en faveur de l'extension des autoroutes.</t>
+    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent les projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno respinto il potenziamento delle strade nazionali con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -365,7 +365,7 @@
     <t>In #Gemeinde_d hat die Stimmbevölkerung den Bundesbeschluss über den Ausbau der Autobahnen abgelehnt. Die Vorlage wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen.</t>
   </si>
   <si>
-    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la réforme en faveur de l'extension des autoroutes.</t>
+    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix les projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>A #Gemeinde_i gli abitanti si sono opposti al potenziamento delle strade nazionali con il #NeinStimmenInProzent per cento di voti a sfavore.</t>
@@ -383,7 +383,7 @@
     <t>#Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>La réforme en faveur de l'extension des autoroutes n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>L'extension de six tronçons autoroutiers n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Il potenziamento delle strade nazionali è stato respinto a #Gemeinde_i, dove ha riscosso il #NeinStimmenInProzent per cento di "no".</t>
@@ -392,7 +392,7 @@
     <t>Nein zum Bundesbeschluss über den Ausbau der Autobahnen in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger die Vorlage abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>C'est non à la réforme en faveur de l'extension des autoroutes à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>C'est non à l'extension des autoroutes à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i si sono mostrati scettici nei confronti del potenziamento delle strade nazionali, che è stato respinto con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -413,7 +413,7 @@
     <t>Nein zum Bundesbeschluss über den Ausbau der Autobahnen in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>La réforme en faveur de l'extension des autoroutes ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+    <t>L'extension des autoroutes ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Il potenziamento delle strade nazionali è stato respinto dagli elettori di #Gemeinde_i, dove i "no" sono stati #NeinStimmenAbsolut e i voti favorevoli #JaStimmenAbsolut.</t>
@@ -425,7 +425,7 @@
     <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner des Bundesbeschlusses über den Ausbau der Autobahnenes genau die Waage.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la réforme en faveur de l'extension des autoroutes et #NeinStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver les projets d'extension des autoroutes et #NeinStimmenAbsolut à les refuser.</t>
   </si>
   <si>
     <t>A #Gemeinde_i è stato raggiunto un risultato di parità. Il potenziamento delle strade nazionali ha ricevuto #JaStimmenAbsolut voti a favore e altrettanti contrari.</t>
@@ -437,7 +437,7 @@
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden dem Bundesbeschluss über den Ausbau der Autobahnen zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la réforme en faveur de l'extension des autoroutes.</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous les projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono espressi nettamente a favore del potenziamento delle strade nazionali, che ha collezionato #JaStimmenAbsolut "sì".</t>
@@ -449,7 +449,7 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden den Bundesbeschluss über den Ausbau der Autobahnen abgelehnt.</t>
   </si>
   <si>
-    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la réforme en faveur de l'extension des autoroutes.</t>
+    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous les projets d'extension des autoroutes.</t>
   </si>
   <si>
     <t>A #Gemeinde_i il potenziamento delle strade nazionali è stato nettamente respinto dagli elettori. I voti contrari sono stati #NeinStimmenAbsolut.</t>
@@ -473,7 +473,7 @@
     <t>Die Gemeinde #Gemeinde_d hat dem Bundesbeschluss über den Ausbau der Autobahnen mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la réforme en faveur de l'extension des autoroutes. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations des projets d'extensions autoroutières. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui il potenziamento delle strade nazionali è stato accolto maggiormente. È stato votato con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -485,7 +485,7 @@
     <t>Die Gemeinde #Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für die Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la réforme en faveur de l'extension des autoroutes. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations des projets d'extension des autoroutes. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Terzo posto nella classifica dei comuni in cui il potenziamento delle strade nazionali è stato accolto maggiormente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
@@ -497,7 +497,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen den Bundesbeschluss über den Ausbau der Autobahnen ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la réforme en faveur de l'extension des autoroutes n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, l'extension des autoroutes n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>In nessun altro comune svizzero il potenziamento delle strade nazionali è stato respinto come a #Gemeinde_i, dove l'elettorato l'ha affossato con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -509,7 +509,7 @@
     <t>Die Gemeinde #Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme en faveur de l'extension des autoroutes. La commune dit non à #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de l'extension des autoroutes. La commune dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui il potenziamento delle strade nazionali è stato respinto maggiormente. È stato bocciato con il #NeinStimmenInProzent per cento di "no".</t>
@@ -521,7 +521,7 @@
     <t>Die Gemeinde #Gemeinde_d hat den Bundesbeschluss über den Ausbau der Autobahnen mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la réforme en faveur de l'extension des autoroutes. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de l'extension des autoroutes. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Terzo posto nella classifica dei comuni in cui il potenziamento delle strade nazionali è stato respinto più nettamente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -557,7 +557,7 @@
     <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Ja gesagt zu dieser Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a approuvé l'arrêté, tout comme son canton.</t>
+    <t>#Gemeinde_f a approuvé l'arrêté fédéral, tout comme son canton.</t>
   </si>
   <si>
     <t>#Gemeinde_i ha accolto il testo, così come quanto avvenuto a livello cantonale.</t>
@@ -569,7 +569,7 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage angenommen hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a rejeté l'arrêté, contrairement à son canton.</t>
+    <t>#Gemeinde_f a rejeté l'arrêté fédéral, contrairement à son canton.</t>
   </si>
   <si>
     <t>#Gemeinde_i ha respinto il testo, contrariamente a quanto registrato a livello cantonale.</t>
@@ -581,7 +581,7 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage abgelehnt hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a approuvé l'arrêté, contrairement à son canton.</t>
+    <t>#Gemeinde_f a approuvé l'arrêté fédéral, contrairement à son canton.</t>
   </si>
   <si>
     <t>#Gemeinde_i ha accolto il testo, contrariamente a quanto avvenuto a livello cantonale.</t>
@@ -593,7 +593,7 @@
     <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Nein gesagt zu dieser Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a rejeté l'arrêté, tout comme son canton.</t>
+    <t>#Gemeinde_f a rejeté l'arrêté fédéral, tout comme son canton.</t>
   </si>
   <si>
     <t>#Gemeinde_i ha respinto il testo, risultato che si è confermato anche a livello cantonale.</t>
@@ -611,7 +611,7 @@
     <t>Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat sich #Gemeinde_d für die Änderung des Mietrechts bei Untermiete ausgesprochen. Das entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à de l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
+    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
   </si>
   <si>
     <t>Gli abitanti di #Gemeinde_i hanno accolto la modifica del diritto di locazione (sublocazione) con il #JaStimmenInProzent per cento di "sì".</t>
@@ -629,7 +629,7 @@
     <t>Die Änderung des Mietrechts bei Untermiete ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail dans le domaine de la sous-location est approuvé à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+    <t>L'assouplissement du droit du bail dans le domaine de la sous-location est approuvé par #JaStimmenInProzent pour cent des votants à #Gemeinde_f.</t>
   </si>
   <si>
     <t>A #Gemeinde_i gli abitanti hanno accolto la modifica del diritto di locazione (sublocazione) con il #JaStimmenInProzent per cento di "sì".</t>
@@ -638,7 +638,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Pensionskassenreform.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
+    <t>Les habitants de #Gemeinde_f acceptent à #JaStimmenInProzent pour cent l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
   </si>
   <si>
     <t>Il #JaStimmenInProzent per cento degli elettori di #Gemeinde_i ha accolto la modifica del diritto di locazione (sublocazione).</t>
@@ -782,7 +782,7 @@
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden ein Nein zur Änderung des Mietrechts bei Untermiete in die Urne gelegt.</t>
   </si>
   <si>
-    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
+    <t>Un non sec et sonnant à #Gemeinde_f! Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'assouplissement du droit du bail dans le domaine de la sous-location.</t>
   </si>
   <si>
     <t>A #Gemeinde_i la modifica del diritto di locazione (sublocazione) è stata nettamente respinta dagli elettori. I voti contrari sono stati #NeinStimmenAbsolut.</t>
@@ -857,7 +857,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
   </si>
   <si>
-    <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent le projet qui vise à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i hanno accolto la modifica del diritto di locazione (disdetta per bisogno personale) con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -866,7 +866,7 @@
     <t>Ja zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger die Vorlage angenommen.</t>
   </si>
   <si>
-    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent au projet visant à simplifier les résiliations du bail pour besoin propre</t>
   </si>
   <si>
     <t>Gli abitanti di #Gemeinde_i hanno accolto la modifica del diritto di locazione (disdetta per bisogno personale) con il #JaStimmenInProzent per cento di "sì".</t>
@@ -875,7 +875,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung wegen Eigenbedarfs mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent au projet qui vise à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno accolto la modifica del diritto di locazione (disdetta per bisogno personale) con il #JaStimmenInProzent per cento di voti favorevoli.</t>
@@ -884,7 +884,7 @@
     <t>In #Gemeinde_d hat die Stimmbevölkerung der Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf zugestimmt. Die Vorlage wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre est approuvé à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+    <t>Le projet qui prévoit une simplification des résiliations du bail pour besoin propre est approuvé à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
   </si>
   <si>
     <t>A #Gemeinde_i gli abitanti hanno accolto la modifica del diritto di locazione (disdetta per bisogno personale) con il #JaStimmenInProzent per cento di "sì".</t>
@@ -893,7 +893,7 @@
     <t>#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>Les habitants de #Gemeinde_f acceptent à #JaStimmenInProzent pour cent le projet visant à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>Il #JaStimmenInProzent per cento degli elettori di #Gemeinde_i ha accolto la modifica del diritto di locazione (disdetta per bisogno personale).</t>
@@ -902,7 +902,7 @@
     <t>Ja zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
+    <t>Le projet visant à simplifier les résiliations du bail pour besoin propre passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) è stata accolta a #Gemeinde_i, dove ha riscosso il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -911,7 +911,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent le projet visant à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i si sono mostrati favorevoli alla modifica del diritto di locazione (disdetta per bisogno personale), che ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
@@ -920,7 +920,7 @@
     <t>Die Stimmbevölkerung von #Gemeinde_d hat sich mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut für die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf ausgesprochen.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre est validé à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+    <t>Le projet visant à simplifier les résiliations du bail pour besoin propre est validé à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) ha passato la prova delle urne a #Gemeinde_i, dove ha raccolto #JaStimmenAbsolut voti favorevoli e #NeinStimmenAbsolut voti contrari.</t>
@@ -929,7 +929,7 @@
     <t>Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen hat #Gemeinde_d die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf angenommen.</t>
   </si>
   <si>
-    <t>Les électeurs de la petite commune de #Gemeinde_f veulent que le droit du bail soit assoupli en faveur des propriétaires pour leur besoin propre. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+    <t>Les électeurs de la petite commune de #Gemeinde_f veulent que les propriétaires puissent résilier plus facilement un bail pour besoin propre. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) è stata accolta dagli elettori di #Gemeinde_i, dove i voti a favore sono stati #JaStimmenAbsolut e quelli contrari #NeinStimmenAbsolut.</t>
@@ -938,7 +938,7 @@
     <t>In #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre est refusé à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
+    <t>Le projet visant à simplifier les résiliations du bail pour besoin propre est refusé à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i hanno respinto la modifica del diritto di locazione (disdetta per bisogno personale) con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -947,7 +947,7 @@
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d sagen Nein zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre par #NeinStimmenInProzent pour cent des voix.</t>
+    <t>Les habitants de #Gemeinde_f s'opposent au projet visant à simplifier les résiliations du bail pour besoin propre par #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
     <t>Gli abitanti di #Gemeinde_i hanno respinto la modifica del diritto di locazione (disdetta per bisogno personale) con il #NeinStimmenInProzent per cento di "no".</t>
@@ -956,7 +956,7 @@
     <t>Nein zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent le projet visant à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno respinto la modifica del diritto di locazione (disdetta per bisogno personale) con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -965,7 +965,7 @@
     <t>In #Gemeinde_d hat die Stimmbevölkerung die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf abgelehnt. Die Vorlage wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen.</t>
   </si>
   <si>
-    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix le projet qui veut simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>A #Gemeinde_i gli abitanti si sono opposti alla modifica del diritto di locazione (disdetta per bisogno personale) con il #NeinStimmenInProzent per cento di voti a sfavore.</t>
@@ -974,7 +974,7 @@
     <t>Keine Mehrheit für die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>Le projet visant à simplifier les résiliations du bail pour besoin propre n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé la réforme à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Il #NeinStimmenInProzent per cento degli elettori di #Gemeinde_i ha respinto la modifica del diritto di locazione (disdetta per bisogno personale).</t>
@@ -983,7 +983,7 @@
     <t>#Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>Le projet visant à simplifier les résiliations du bail pour besoin propre n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) è stata respinta a #Gemeinde_i, dove ha riscosso il #NeinStimmenInProzent per cento di "no".</t>
@@ -992,7 +992,7 @@
     <t>Nein zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf  in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger die Vorlage abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>C'est non à l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>C'est non au projet prévoyant une simplification des résiliations du bail pour besoin propre à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i si sono mostrati scettici nei confronti della modifica del diritto di locazione (disdetta per bisogno personale), che è stata respinta con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -1001,7 +1001,7 @@
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde #Gemeinde_d die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf verworfen.</t>
   </si>
   <si>
-    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé d'assouplir le droit du bail en faveur des propriétaires pour leur besoin propre. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé de simplifier les résiliations du bail pour besoin propre. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) non ha passato la prova delle urne a #Gemeinde_i, dove è stata respinta con #NeinStimmenAbsolut voti contro i #JaStimmenAbsolut a favore.</t>
@@ -1010,7 +1010,7 @@
     <t>Nein zur Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>L'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejeté par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+    <t>La réforme visant à simplifier les résiliations du bail pour besoin propre ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>La modifica del diritto di locazione (disdetta per bisogno personale) è stata respinta dagli elettori di #Gemeinde_i, dove i "no" sono stati #NeinStimmenAbsolut e i voti favorevoli #JaStimmenAbsolut.</t>
@@ -1019,7 +1019,7 @@
     <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner der Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf genau die Waage.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre et #NeinStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le projet visant à simplifier les résiliations du bail pour besoin propre et #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>A #Gemeinde_i è stato raggiunto un risultato di parità. La modifica del diritto di locazione (disdetta per bisogno personale) ha ricevuto #JaStimmenAbsolut voti a favore e altrettanti contrari.</t>
@@ -1028,7 +1028,7 @@
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la simplification des résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono espressi nettamente a favore della modifica del diritto di locazione (disdetta per bisogno personale), che ha collezionato #JaStimmenAbsolut "sì".</t>
@@ -1037,7 +1037,7 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf abgelehnt.</t>
   </si>
   <si>
-    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre.</t>
+    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous le projet visant à simplifier les résiliations du bail pour besoin propre.</t>
   </si>
   <si>
     <t>A #Gemeinde_i la modifica del diritto di locazione (disdetta per bisogno personale) è stata nettamente respinta dagli elettori. I voti contrari sono stati #NeinStimmenAbsolut.</t>
@@ -1046,7 +1046,7 @@
     <t>Die Gemeinde #Gemeinde_d hat am Abstimmungssonntag für einen Rekord gesorgt: Sie hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit dem höchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse la volonté d'assouplir le droit du bail en faveur des propriétaires pour leur besoin propre n'a été exprimée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse la volonté de simplifier les résiliations du bail pour besoin propre n'a été exprimée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>In nessun altro comune svizzero la modifica del diritto di locazione (disdetta per bisogno personale) è stata accolta come a #Gemeinde_i, dove l'elettorato l'ha votata con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -1055,7 +1055,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations du projet visant à simplifier les résiliations du bail pour besoin propre. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui la modifica del diritto di locazione (disdetta per bisogno personale) è stata accolta maggiormente. È stata votata con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -1064,7 +1064,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für die Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations du projet visant à simplifier les résiliations du bail pour besoin propre. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Terzo posto nella classifica dei comuni in cui la modifica del diritto di locazione (disdetta per bisogno personale) è stata accolta maggiormente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
@@ -1073,7 +1073,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre n'est rejeté plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, le projet visant à simplifier les résiliations du bail pour besoin propre n'est rejeté plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>In nessun altro comune svizzero la modifica del diritto di locazione (disdetta per bisogno personale) è stata respinta come a #Gemeinde_i, dove l'elettorato l'ha affossata con il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -1082,7 +1082,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre. La commune dit non à #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus du projet visant à simplifier les résiliations du bail pour besoin propre. La commune dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui la modifica del diritto di locazione (disdetta per bisogno personale) è stata respinta maggiormente. È stata bocciata con il #NeinStimmenInProzent per cento di "no".</t>
@@ -1091,7 +1091,7 @@
     <t>Die Gemeinde #Gemeinde_d hat die Änderung des Mietrechts zur vereinfachten Kündigung für Eigenbedarf mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de l'assouplissement du droit du bail en faveur des propriétaires pour leur besoin propre. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus forts refus du projet visant à simplifier les résiliations du bail pour besoin propre. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Terzo posto nella classifica dei comuni in cui la modifica del diritto di locazione (disdetta per bisogno personale) è stata respinta più nettamente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #NeinStimmenInProzent per cento di voti contrari.</t>
@@ -1118,7 +1118,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die einheitliche Finanzierung der Leistungen im Gesundheitswesen ausgesprochen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent au financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent au financement uniforme des soins.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno accolto il finanziamento uniforme delle prestazioni con il #JaStimmenInProzent per cento di voti favorevoli.</t>
@@ -1136,7 +1136,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur einheitliche Finanzierung der Leistungen im Gesundheitswesen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée.</t>
+    <t>Les habitants de #Gemeinde_f acceptent à #JaStimmenInProzent pour cent le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée.</t>
   </si>
   <si>
     <t>Il #JaStimmenInProzent per cento degli elettori di #Gemeinde_i ha accolto il finanziamento uniforme delle prestazioni.</t>
@@ -1154,7 +1154,7 @@
     <t>Ja zur einheitlichen Finanzierung der Leistungen im Gesundheitswesen in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée.</t>
+    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent le financement uniforme des prestations médicales.</t>
   </si>
   <si>
     <t>Gli elettori di #Gemeinde_i si sono mostrati favorevoli al finanziamento uniforme delle prestazioni, che ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
@@ -1163,7 +1163,7 @@
     <t>#Gemeinde_d hat mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen die einheitliche Finanzierung der Leistungen im Gesundheitswesen angenommen.</t>
   </si>
   <si>
-    <t>Le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée est validé à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut au refuser.</t>
+    <t>Le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée est validé à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>Il finanziamento uniforme delle prestazioni ha passato la prova delle urne a #Gemeinde_i, dove ha raccolto #JaStimmenAbsolut voti favorevoli e #NeinStimmenAbsolut voti contrari.</t>
@@ -1172,7 +1172,7 @@
     <t>Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen hat #Gemeinde_d die einheitliche Finanzierung der Leistungen im Gesundheitswesen angenommen.</t>
   </si>
   <si>
-    <t>Les électeurs de la petite commune de #Gemeinde_f sont favoraibles au financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+    <t>Les électeurs de la petite commune de #Gemeinde_f sont favorables au financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>Il finanziamento uniforme delle prestazioni è stato accolto dagli elettori di #Gemeinde_i, dove i voti a favore sono stati #JaStimmenAbsolut e quelli contrari #NeinStimmenAbsolut.</t>
@@ -1253,7 +1253,7 @@
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die einheitliche Finanzierung der Leistungen im Gesundheitswesen abgelehnt.</t>
   </si>
   <si>
-    <t>Le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejeté par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+    <t>Le financement uniforme des soins ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejeté par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Il finanziamento uniforme delle prestazioni è stato respinto dagli elettori di #Gemeinde_i, dove i "no" sono stati #NeinStimmenAbsolut e i voti favorevoli #JaStimmenAbsolut.</t>
@@ -1262,7 +1262,7 @@
     <t>Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über die einheitliche Finanzierung der Leistungen im Gesundheitswesen ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée et #NeinStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée et #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>A #Gemeinde_i è stato raggiunto un risultato di parità. Il finanziamento uniforme delle prestazioni ha ricevuto #JaStimmenAbsolut voti a favore e altrettanti contrari.</t>
@@ -1298,7 +1298,7 @@
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über die einheitliche Finanzierung der Leistungen im Gesundheitswesen: #JaStimmenInProzent Prozent waren dafür.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations du financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations du financement uniforme des prestations médicales ambulatoires, stationnaires et les soins de longue durée. Ses habitants plébiscitent le texte à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui il finanziamento uniforme delle prestazioni è stato accolto maggiormente. È stato votato con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -1400,37 +1400,37 @@
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Finanzierung des Eurovision Song Contest (ESC) 2025: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. La réforme veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. La réforme prévoit de transférer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la modification de la loi sur la fixation des tarifs des transports publics. La réforme veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>La modification de la loi sur la fixation des tarifs des transports publics passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette réforme, qui fait passer la compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat.</t>
+    <t>La modification de la loi sur la fixation des tarifs des transports publics passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette réforme, qui veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la modification de la loi sur la fixation des tarifs des transports publics. Le projet entend transférer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la modification de la loi sur la fixation des tarifs des transports publics. Le texte veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent à la modification de la loi sur la fixation des tarifs des transports publics à #Gemeinde_f. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la modification de la loi sur la fixation des tarifs des transports publics à #Gemeinde_f. Le projet veut transférer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>La modification de la loi sur la fixation des tarifs des transports publics ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette réforme, qui fait passer la compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat.</t>
+    <t>La modification de la loi sur la fixation des tarifs des transports publics ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette réforme, qui entend faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la modification de la loi sur la fixation des tarifs des transports publics et #NeinStimmenAbsolut à le refuser. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la modification de la loi sur la fixation des tarifs des transports publics et #NeinStimmenAbsolut à la refuser. La réforme veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la modification de la loi sur la fixation des tarifs des transports publics. La compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat avec cette réforme.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la modification de la loi sur la fixation des tarifs des transports publics. Le projet veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
-    <t>la modification de la loi sur la fixation des tarifs des transports publics a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette réforme qui fait passer la compétence en matière de grille tarifaire passera du Grand Conseil au Conseil d'Etat.</t>
+    <t>La modification de la loi sur la fixation des tarifs des transports publics a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette réforme qui veut faire passer la compétence en matière de grille tarifaire du Grand Conseil au Conseil d'Etat.</t>
   </si>
   <si>
     <t>C'est à #Gemeinde_f que la loi a été le plus fortement approuvée.</t>
@@ -1451,7 +1451,7 @@
     <t>Les habitants de #Gemeinde_f ont rejeté le texte, tout comme le canton.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la modification du processus d'adaptation du plan localisé de quartier (PLQ). La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
     <t>Text</t>
@@ -1463,10 +1463,10 @@
     <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
-    <t>La modification du processus d'adaptation du plan localisé de quartier (PLQ) passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à l'exigence de demander dorénavant l'accord des propriétaires des terrains convoités au début de la procédure.</t>
+    <t>La modification du processus d'adaptation du plan localisé de quartier (PLQ) passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui au texte, qui exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé à #NeinStimmenInProzent pour cent la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
@@ -1478,7 +1478,7 @@
     <t>La modification du processus d'adaptation du plan localisé de quartier (PLQ) ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette mesure, qui exige dorénavant l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la modification du processus d'adaptation du plan localisé de quartier (PLQ) et #NeinStimmenAbsolut à le refuser. La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la modification du processus d'adaptation du plan localisé de quartier (PLQ) et #NeinStimmenAbsolut à la refuser. La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
   </si>
   <si>
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la modification du processus d'adaptation du plan localisé de quartier (PLQ). La réforme exige l'accord des propriétaires des terrains convoités au début de la procédure.</t>
@@ -1493,28 +1493,28 @@
     <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une baisse d'impôt sur le revenu. Ce projet vise à redonner du pouvoir d'achat à la population. Il ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
     <t>La baisse d'impôt sur le revenu passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette baisse qui ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé à #NeinStimmenInProzent pour cent une baisse d'impôt sur le revenu. Ce projet entend redonner du pouvoir d'achat à la population. Il ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre environ 320 millions de francs de recettes au canton et 108 millions aux communes.</t>
   </si>
   <si>
     <t>C'est non à #NeinStimmenInProzent pour cent à une baisse d'impôt sur le revenu à #Gemeinde_f. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
-    <t>La baisse d'impôt sur le revenu ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette mesure, qui ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
+    <t>La baisse d'impôt sur le revenu ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette mesure, qui ferait perdre au canton environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter une baisse d'impôt sur le revenu et #NeinStimmenAbsolut à le refuser. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté une baisse d'impôt sur le revenu. Ce projet, élaboré pour redonner du pouvoir d'achat à la population, ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté une baisse d'impôt sur le revenu. Ce projet a été élaboré pour redonner du pouvoir d'achat à la population. Il ferait perdre environ 320 millions de francs de recettes à l'Etat de Genève  et 108 millions aux communes.</t>
   </si>
   <si>
     <t>La baisse d'impôt sur le revenu a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette mesure qui ferait perdre à l'Etat de Genève environ 320 millions de francs de recettes et aux communes 108 millions de francs.</t>
@@ -1541,67 +1541,67 @@
     <t>#Gemeinde_d hat das Klimagesetz mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Klimagesetz  ausgesprochen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Klimagesetz zugestimmt.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à la loi climat à #Gemeinde_f. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Das Klimagesetz  ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
-    <t>La loi climat passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à des dispositions qui prévoient que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>La loi climat passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui aux dispositions qui prévoient que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat das Klimagesetz  mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé à #NeinStimmenInProzent pour cent la loi climat. Le texte prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Nein zum Klimagesetz in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la loi climat. Celle-ci prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Keine Mehrheit für das Klimagesetz  in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent à la loi climat à #Gemeinde_f. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la loi climat à #Gemeinde_f. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Das Klimagesetz  ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>La loi climat ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à des dispositions qui prévoient que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>La loi climat ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à des dispositions qui prévoient que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über das Klimagesetz : Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi climat et #NeinStimmenAbsolut à le refuser. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi climat et #NeinStimmenAbsolut à la refuser. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden dem Klimagesetz zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la loi climat. La nouvelle loi prévoit que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la loi climat. La nouvelle loi prévoit que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Klimagesetz  abgelehnt.</t>
   </si>
   <si>
-    <t>La loi climat a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé les dispositions qui prévoient que le canton atteigne le zéro émission de CO2 en 2040.</t>
+    <t>La loi climat a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé les dispositions qui prévoient que le canton atteigne la neutralité carbone d'ici 2040.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix l'introduction d'un droit à l'intégrité numérique. L'intégrité numérique prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
@@ -1631,7 +1631,7 @@
     <t>L'introduction d'un droit à l'intégrité numérique ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce droit, qui prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter l'introduction d'un droit à l'intégrité numérique et #NeinStimmenAbsolut à le refuser. L'intégrité numérique prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter l'introduction d'un droit à l'intégrité numérique et #NeinStimmenAbsolut à la refuser. L'intégrité numérique prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
   </si>
   <si>
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté l'introduction d'un droit à l'intégrité numérique. L'intégrité numérique prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
@@ -1640,37 +1640,46 @@
     <t>L'introduction d'un droit à l'intégrité numérique a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce droit, qui prévoit le droit d'être protégé contre le traitement abusif des données liées à sa vie numérique, le droit à la sécurité dans l'espace numérique, le droit à une vie hors ligne ainsi que le droit à l'oubli.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>C'est à #Gemeinde_f que le projet a été le plus fortement approuvé.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Le rejet le plus net a été enregistré à #Gemeinde_f.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la création du district de Moutier. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
-    <t>La création du district de Moutier passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à la réalisation d'une circonscription électorale de 7 députés sur 60, le temps d'une législature.</t>
+    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la création du district de Moutier. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la création d'un quatrième district. Le projet prévoit que Moutier avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>La création du district de Moutier passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à ce projet, qui prévoit la réalisation d'une circonscription électorale de 7 députés sur 60, le temps d'une législature.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent à la création du district de Moutier à #Gemeinde_f. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé à #NeinStimmenInProzent pour cent la création du district de Moutier. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la création du district de Moutier. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+  </si>
+  <si>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la création d'un quatrième district à #Gemeinde_f. Le projet prévoit que Moutier avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
     <t>La création du district de Moutier ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette mesure, qui prévoit une circonscription de électorale de 7 députés, le temps d'une législature.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la création du district de Moutier et #NeinStimmenAbsolut à le refuser. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la création du district de Moutier et #NeinStimmenAbsolut à la refuser. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la création du district de Moutier. La cité prévôtoise avec ses 7200 habitants formera une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la création du district de Moutier. Le projet prévoit que la cité prévôtoise avec ses 7200 habitants forme une circonscription électorale avec 7 députés sur 60 le temps d'une législature.</t>
   </si>
   <si>
     <t>La création du district de Moutier a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette mesure qui prévoit une circonscription de électorale de 7 députés, le temps d'une législature.</t>
+  </si>
+  <si>
+    <t>C'est à #Gemeinde_f que le texte a été le plus fortement approuvé.</t>
   </si>
   <si>
     <t>Variable</t>
@@ -15026,8 +15035,8 @@
         <v>167</v>
       </c>
       <c r="B13" s="29"/>
-      <c r="C13" s="29" t="s">
-        <v>469</v>
+      <c r="C13" s="19" t="s">
+        <v>538</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20"/>
@@ -15037,8 +15046,8 @@
         <v>171</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
-        <v>470</v>
+      <c r="C14" s="19" t="s">
+        <v>539</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="20"/>
@@ -20903,7 +20912,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E2" s="20"/>
     </row>
@@ -20913,7 +20922,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="19" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E3" s="21"/>
     </row>
@@ -20923,7 +20932,7 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E4" s="21"/>
     </row>
@@ -20933,7 +20942,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="20"/>
@@ -20944,7 +20953,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
@@ -20955,7 +20964,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -20966,7 +20975,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -20977,7 +20986,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
@@ -20988,7 +20997,7 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="19" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
@@ -20999,7 +21008,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
@@ -21010,7 +21019,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -21020,8 +21029,8 @@
         <v>167</v>
       </c>
       <c r="B13" s="29"/>
-      <c r="C13" s="29" t="s">
-        <v>469</v>
+      <c r="C13" s="19" t="s">
+        <v>551</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20"/>
@@ -21031,8 +21040,8 @@
         <v>171</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
-        <v>470</v>
+      <c r="C14" s="19" t="s">
+        <v>539</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="20"/>
@@ -21042,7 +21051,7 @@
         <v>175</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>471</v>
       </c>
       <c r="D15" s="21"/>
@@ -21053,7 +21062,7 @@
         <v>179</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="19" t="s">
         <v>472</v>
       </c>
       <c r="D16" s="21"/>
@@ -26872,47 +26881,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B6" s="48">
         <v>60.4</v>
@@ -26920,7 +26929,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B7" s="48">
         <v>39.6</v>
@@ -26928,23 +26937,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B10" s="48">
         <v>60.4</v>
@@ -26952,7 +26961,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B11" s="48">
         <v>39.6</v>
@@ -26960,26 +26969,26 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15">
@@ -26987,13 +26996,13 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B16" s="49"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B17" s="48">
         <v>60.4</v>
@@ -27001,7 +27010,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B18" s="48">
         <v>39.6</v>
@@ -27009,23 +27018,23 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B21" s="48">
         <v>60.4</v>
@@ -27033,7 +27042,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B22" s="48">
         <v>39.6</v>
@@ -27041,23 +27050,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="30" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B25" s="51">
         <v>60.4</v>
@@ -27065,7 +27074,7 @@
     </row>
     <row r="26">
       <c r="A26" s="30" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B26" s="51">
         <v>39.6</v>
@@ -27076,19 +27085,19 @@
     </row>
     <row r="28">
       <c r="A28" s="50" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B28" s="49"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B29" s="49"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B30" s="49"/>
     </row>
